--- a/Tài liệu chung/QLBV_WBS.xlsx
+++ b/Tài liệu chung/QLBV_WBS.xlsx
@@ -2136,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G264" sqref="G264"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H221" sqref="H221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4356,7 +4356,9 @@
       <c r="H115" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="I115" s="29"/>
+      <c r="I115" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="50" t="s">

--- a/Tài liệu chung/QLBV_WBS.xlsx
+++ b/Tài liệu chung/QLBV_WBS.xlsx
@@ -2136,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H221" sqref="H221"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
